--- a/PS-250/RC_Lab/RC_Data.xlsx
+++ b/PS-250/RC_Lab/RC_Data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stark/StarkDev/Fall_2018_Homework/PS-250/RC_Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevStark\Fall_2018_Homework\PS-250\RC_Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFCD28BC-12F1-234C-965D-712813D673B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{34B7B6DF-00A8-484B-954A-77C6C55E827F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13400" windowHeight="18000" xr2:uid="{59BF9D8D-A6E1-6F47-98DE-473D7120A5C4}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="13395" windowHeight="18000" tabRatio="597" xr2:uid="{59BF9D8D-A6E1-6F47-98DE-473D7120A5C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>1 Capacitor</t>
   </si>
@@ -59,12 +59,21 @@
   <si>
     <t>1 Parallel Capacitor</t>
   </si>
+  <si>
+    <t>ln(V/Vint)</t>
+  </si>
+  <si>
+    <t>Calculated Capacitance</t>
+  </si>
+  <si>
+    <t>Capacitance Percent Diff</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,7 +97,7 @@
       <name val="Roboto Light"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +116,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -120,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,6 +147,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -149,6 +167,4583 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Voltage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Vs Time: Situation I</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9849999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4.4539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4379999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.726</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.528</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.788</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6859999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92D7-46DD-A140-76BB62B6494B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="507120256"/>
+        <c:axId val="507126488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="507120256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507126488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="507126488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507120256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ln(V/Vint) Vs Time:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Situtation I</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln(V/Vint)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9849999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.5987443247736915E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.8891426865729496E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6069147398503677E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.0136260919434543E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.15696109143481557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.22179735411741286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.28543941620794699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.36272309002956454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.43220010580096679</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.49096723556083499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.56637409255056481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.64322438032640206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.70035766695986656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.76818819813772909</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.85247513700502697</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.91270489208385341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.97144370925551216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-775F-4A5D-82D7-48228696B50C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="507136656"/>
+        <c:axId val="507134688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="507136656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507134688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="507134688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(V/Vint)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507136656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ln(V/Vint) Vs Time: Situtation 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.5533302005164762E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.14746513165485869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.27493744818146554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.41368098645318302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5572964981443318</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.68171345881513401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.81430831717209695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.96663008303041642</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.0941992188405212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23FE-406A-9140-CBD8544400E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="556147768"/>
+        <c:axId val="556154984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="556147768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556154984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="556154984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(V/Vint)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556147768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ln(V/Vint)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Vs Time: Situtation 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$33:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4800000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$33:$H$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.6668247082161409E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.0190939120805059E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.10381938647589882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.13377929577829403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.16126091800976308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.20572812566944515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.24189843387520005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.26537631493748276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.30577419126377875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.34910226802731548</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.37233018914449373</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.40517596541423156</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.45359759385862564</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.48128741092408817</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.50640126336997826</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.55456782163811802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.5914950942303363</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.61048300647502773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.65290372235897975</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.69952956369903529</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.71833152768143516</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.75088413071918358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59F1-4D5E-AF81-9D118F2DE6B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="608730240"/>
+        <c:axId val="608732864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="608730240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608732864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="608732864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(V/Vint)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608730240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F76E27-4F75-499E-8306-340D9265C771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867629C8-F271-4DDD-8428-D06A0F318332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B73F7E2-DC43-4A9B-A6CD-EC19F6C58543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>823912</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138168DE-E3BF-47A2-8507-C69133D7D0CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,26 +5043,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E17B6F1-2953-844A-AD69-E45BBFAC5171}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="G5" sqref="G5:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="29.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="2"/>
     <col min="4" max="4" width="28" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="27.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="2"/>
+    <col min="7" max="7" width="27.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +5073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -498,7 +5093,7 @@
         <v>21800</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -520,7 +5115,7 @@
         <v>6.6000000000000003E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -543,7 +5138,7 @@
         <v>0.14388000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -563,7 +5158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>3.9</v>
       </c>
@@ -583,7 +5178,7 @@
         <v>3.4580000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3.9049999999999998</v>
       </c>
@@ -603,7 +5198,7 @@
         <v>3.367</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>3.91</v>
       </c>
@@ -623,7 +5218,7 @@
         <v>3.2559999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>3.915</v>
       </c>
@@ -643,7 +5238,7 @@
         <v>3.117</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>3.92</v>
       </c>
@@ -663,7 +5258,7 @@
         <v>3.0249999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>3.9249999999999998</v>
       </c>
@@ -683,7 +5278,7 @@
         <v>2.9430000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>3.93</v>
       </c>
@@ -703,7 +5298,7 @@
         <v>2.8149999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>3.9350000000000001</v>
       </c>
@@ -723,7 +5318,7 @@
         <v>2.7149999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>3.94</v>
       </c>
@@ -743,7 +5338,7 @@
         <v>2.6520000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>3.9449999999999998</v>
       </c>
@@ -763,7 +5358,7 @@
         <v>2.5470000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>3.95</v>
       </c>
@@ -784,7 +5379,7 @@
         <v>2.4390000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>3.9550000000000001</v>
       </c>
@@ -805,7 +5400,7 @@
         <v>2.383</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>3.96</v>
       </c>
@@ -819,13 +5414,19 @@
         <v>2.306</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>3.9649999999999999</v>
       </c>
       <c r="B19" s="3">
         <v>2.2109999999999999</v>
       </c>
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="G19" s="3">
         <v>4.4349999999999996</v>
       </c>
@@ -833,13 +5434,21 @@
         <v>2.1970000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>3.97</v>
       </c>
       <c r="B20" s="3">
         <v>2.0659999999999998</v>
       </c>
+      <c r="D20" s="2">
+        <f>D6</f>
+        <v>13.85</v>
+      </c>
+      <c r="E20" s="2">
+        <f>LN(E6 / 4.522)</f>
+        <v>0</v>
+      </c>
       <c r="G20" s="3">
         <v>4.4400000000000004</v>
       </c>
@@ -847,13 +5456,21 @@
         <v>2.137</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>3.9750000000000001</v>
       </c>
       <c r="B21" s="3">
         <v>1.899</v>
       </c>
+      <c r="D21" s="2">
+        <f t="shared" ref="D21:D29" si="0">D7</f>
+        <v>13.855</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ref="E21:E29" si="1">LN(E7 / 4.522)</f>
+        <v>-2.5533302005164762E-2</v>
+      </c>
       <c r="G21" s="3">
         <v>4.4450000000000003</v>
       </c>
@@ -861,13 +5478,21 @@
         <v>2.0840000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>3.98</v>
       </c>
       <c r="B22" s="3">
         <v>1.788</v>
       </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>13.86</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.14746513165485869</v>
+      </c>
       <c r="G22" s="3">
         <v>4.45</v>
       </c>
@@ -875,13 +5500,21 @@
         <v>1.986</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>3.9849999999999999</v>
       </c>
       <c r="B23" s="3">
         <v>1.6859999999999999</v>
       </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>13.865</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.27493744818146554</v>
+      </c>
       <c r="G23" s="3">
         <v>4.4550000000000001</v>
       </c>
@@ -889,7 +5522,7 @@
         <v>1.9139999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -897,6 +5530,14 @@
         <f>3.97 - 3.9</f>
         <v>7.0000000000000284E-2</v>
       </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>13.87</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.41368098645318302</v>
+      </c>
       <c r="G24" s="3">
         <v>4.46</v>
       </c>
@@ -904,7 +5545,7 @@
         <v>1.8779999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -912,6 +5553,14 @@
         <f xml:space="preserve"> ((B4 - B24) / B24 ) * 100</f>
         <v>2.7714285714281597</v>
       </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>13.875</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.5572964981443318</v>
+      </c>
       <c r="G25" s="3">
         <v>4.4649999999999999</v>
       </c>
@@ -919,7 +5568,21 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>13.88</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.68171345881513401</v>
+      </c>
       <c r="G26" s="3">
         <v>4.47</v>
       </c>
@@ -927,7 +5590,23 @@
         <v>1.718</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <f>A6</f>
+        <v>3.9</v>
+      </c>
+      <c r="B27" s="2">
+        <f xml:space="preserve"> LN(B6/4.454)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>13.885</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.81430831717209695</v>
+      </c>
       <c r="G27" s="3">
         <v>4.4749999999999996</v>
       </c>
@@ -935,7 +5614,23 @@
         <v>1.6859999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <f t="shared" ref="A28:A44" si="2">A7</f>
+        <v>3.9049999999999998</v>
+      </c>
+      <c r="B28" s="2">
+        <f xml:space="preserve"> LN(B7/4.454)</f>
+        <v>-3.5987443247736915E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>13.89</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.96663008303041642</v>
+      </c>
       <c r="G28" s="3">
         <v>4.4800000000000004</v>
       </c>
@@ -943,7 +5638,23 @@
         <v>1.6319999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <f t="shared" si="2"/>
+        <v>3.91</v>
+      </c>
+      <c r="B29" s="2">
+        <f xml:space="preserve"> LN(B8/4.454)</f>
+        <v>-7.8891426865729496E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>13.895</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.0941992188405212</v>
+      </c>
       <c r="G29" s="2" t="s">
         <v>6</v>
       </c>
@@ -952,7 +5663,22 @@
         <v>0.13999999999999968</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <f t="shared" si="2"/>
+        <v>3.915</v>
+      </c>
+      <c r="B30" s="2">
+        <f xml:space="preserve"> LN(B9/4.454)</f>
+        <v>-1.6069147398503677E-2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2">
+        <f xml:space="preserve"> -1 / ((-25.617) * (21800))</f>
+        <v>1.7906686822433354E-6</v>
+      </c>
       <c r="G30" s="2" t="s">
         <v>7</v>
       </c>
@@ -961,7 +5687,400 @@
         <v>2.7714285714288116</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <f t="shared" si="2"/>
+        <v>3.92</v>
+      </c>
+      <c r="B31" s="2">
+        <f xml:space="preserve"> LN(B10/4.454)</f>
+        <v>-8.0136260919434543E-2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2">
+        <f>((E30 - E3) / E30) * 100</f>
+        <v>7.8556510000000062</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="B32" s="2">
+        <f xml:space="preserve"> LN(B11/4.454)</f>
+        <v>-0.15696109143481557</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <f t="shared" si="2"/>
+        <v>3.93</v>
+      </c>
+      <c r="B33" s="2">
+        <f xml:space="preserve"> LN(B12/4.454)</f>
+        <v>-0.22179735411741286</v>
+      </c>
+      <c r="G33" s="2">
+        <f>G6</f>
+        <v>4.37</v>
+      </c>
+      <c r="H33" s="2">
+        <f>LN(H6/3.458)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9350000000000001</v>
+      </c>
+      <c r="B34" s="2">
+        <f xml:space="preserve"> LN(B13/4.454)</f>
+        <v>-0.28543941620794699</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" ref="G34:G55" si="3">G7</f>
+        <v>4.375</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" ref="H34:H55" si="4">LN(H7/3.458)</f>
+        <v>-2.6668247082161409E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <f t="shared" si="2"/>
+        <v>3.94</v>
+      </c>
+      <c r="B35" s="2">
+        <f xml:space="preserve"> LN(B14/4.454)</f>
+        <v>-0.36272309002956454</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="3"/>
+        <v>4.38</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="4"/>
+        <v>-6.0190939120805059E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9449999999999998</v>
+      </c>
+      <c r="B36" s="2">
+        <f xml:space="preserve"> LN(B15/4.454)</f>
+        <v>-0.43220010580096679</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3849999999999998</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.10381938647589882</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <f t="shared" si="2"/>
+        <v>3.95</v>
+      </c>
+      <c r="B37" s="2">
+        <f xml:space="preserve"> LN(B16/4.454)</f>
+        <v>-0.49096723556083499</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.13377929577829403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="B38" s="2">
+        <f xml:space="preserve"> LN(B17/4.454)</f>
+        <v>-0.56637409255056481</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.16126091800976308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <f t="shared" si="2"/>
+        <v>3.96</v>
+      </c>
+      <c r="B39" s="2">
+        <f xml:space="preserve"> LN(B18/4.454)</f>
+        <v>-0.64322438032640206</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.20572812566944515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9649999999999999</v>
+      </c>
+      <c r="B40" s="2">
+        <f xml:space="preserve"> LN(B19/4.454)</f>
+        <v>-0.70035766695986656</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4050000000000002</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.24189843387520005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <f t="shared" si="2"/>
+        <v>3.97</v>
+      </c>
+      <c r="B41" s="2">
+        <f xml:space="preserve"> LN(B20/4.454)</f>
+        <v>-0.76818819813772909</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="3"/>
+        <v>4.41</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.26537631493748276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9750000000000001</v>
+      </c>
+      <c r="B42" s="2">
+        <f xml:space="preserve"> LN(B21/4.454)</f>
+        <v>-0.85247513700502697</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="3"/>
+        <v>4.415</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.30577419126377875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <f t="shared" si="2"/>
+        <v>3.98</v>
+      </c>
+      <c r="B43" s="2">
+        <f xml:space="preserve"> LN(B22/4.454)</f>
+        <v>-0.91270489208385341</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="3"/>
+        <v>4.42</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.34910226802731548</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9849999999999999</v>
+      </c>
+      <c r="B44" s="2">
+        <f xml:space="preserve"> LN(B23/4.454)</f>
+        <v>-0.97144370925551216</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.37233018914449373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2">
+        <f xml:space="preserve"> -1 / ((-12.549) * (21800))</f>
+        <v>3.6553956198125363E-6</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="3"/>
+        <v>4.43</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.40517596541423156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2">
+        <f xml:space="preserve"> ((B45 - B3) / B45) * 100</f>
+        <v>9.7224939999999869</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4349999999999996</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.45359759385862564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G47" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.48128741092408817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G48" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4450000000000003</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.50640126336997826</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G49" s="2">
+        <f t="shared" si="3"/>
+        <v>4.45</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.55456782163811802</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G50" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.5914950942303363</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G51" s="2">
+        <f t="shared" si="3"/>
+        <v>4.46</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.61048300647502773</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G52" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4649999999999999</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.65290372235897975</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G53" s="2">
+        <f t="shared" si="3"/>
+        <v>4.47</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.69952956369903529</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G54" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.71833152768143516</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G55" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.75088413071918358</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="2">
+        <f xml:space="preserve"> -1 / ((-6.9255) * (21800))</f>
+        <v>6.6235736961991941E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="2">
+        <f>((H56 - H3) / H56) * 100</f>
+        <v>0.35590599999998523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PS-250/RC_Lab/RC_Data.xlsx
+++ b/PS-250/RC_Lab/RC_Data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevStark\Fall_2018_Homework\PS-250\RC_Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stark/StarkDev/Fall_2018_Homework/PS-250/RC_Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{34B7B6DF-00A8-484B-954A-77C6C55E827F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F558474-9312-1B40-9230-DD944B4FCBC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="13395" windowHeight="18000" tabRatio="597" xr2:uid="{59BF9D8D-A6E1-6F47-98DE-473D7120A5C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" tabRatio="597" xr2:uid="{59BF9D8D-A6E1-6F47-98DE-473D7120A5C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -410,7 +410,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5046,23 +5045,23 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G28"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="29.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="2"/>
+    <col min="1" max="1" width="29.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
     <col min="4" max="4" width="28" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="2"/>
-    <col min="7" max="7" width="27.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="2"/>
+    <col min="5" max="5" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="27.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5073,7 +5072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>21800</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5115,7 +5114,7 @@
         <v>6.6000000000000003E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>0.14388000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>3.9</v>
       </c>
@@ -5178,7 +5177,7 @@
         <v>3.4580000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>3.9049999999999998</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>3.367</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>3.91</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>3.2559999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>3.915</v>
       </c>
@@ -5238,7 +5237,7 @@
         <v>3.117</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>3.92</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>3.0249999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>3.9249999999999998</v>
       </c>
@@ -5278,7 +5277,7 @@
         <v>2.9430000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>3.93</v>
       </c>
@@ -5298,7 +5297,7 @@
         <v>2.8149999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>3.9350000000000001</v>
       </c>
@@ -5318,7 +5317,7 @@
         <v>2.7149999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>3.94</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>2.6520000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>3.9449999999999998</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>2.5470000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>3.95</v>
       </c>
@@ -5379,7 +5378,7 @@
         <v>2.4390000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>3.9550000000000001</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>2.383</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>3.96</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>2.306</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>3.9649999999999999</v>
       </c>
@@ -5434,7 +5433,7 @@
         <v>2.1970000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>3.97</v>
       </c>
@@ -5456,7 +5455,7 @@
         <v>2.137</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>3.9750000000000001</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>2.0840000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>3.98</v>
       </c>
@@ -5500,7 +5499,7 @@
         <v>1.986</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>3.9849999999999999</v>
       </c>
@@ -5522,7 +5521,7 @@
         <v>1.9139999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -5545,7 +5544,7 @@
         <v>1.8779999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -5568,7 +5567,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -5590,13 +5589,13 @@
         <v>1.718</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <f>A6</f>
         <v>3.9</v>
       </c>
       <c r="B27" s="2">
-        <f xml:space="preserve"> LN(B6/4.454)</f>
+        <f t="shared" ref="B27:B44" si="2" xml:space="preserve"> LN(B6/4.454)</f>
         <v>0</v>
       </c>
       <c r="D27" s="2">
@@ -5614,13 +5613,13 @@
         <v>1.6859999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <f t="shared" ref="A28:A44" si="2">A7</f>
+        <f t="shared" ref="A28:A44" si="3">A7</f>
         <v>3.9049999999999998</v>
       </c>
       <c r="B28" s="2">
-        <f xml:space="preserve"> LN(B7/4.454)</f>
+        <f t="shared" si="2"/>
         <v>-3.5987443247736915E-3</v>
       </c>
       <c r="D28" s="2">
@@ -5638,13 +5637,13 @@
         <v>1.6319999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
+        <f t="shared" si="3"/>
+        <v>3.91</v>
+      </c>
+      <c r="B29" s="2">
         <f t="shared" si="2"/>
-        <v>3.91</v>
-      </c>
-      <c r="B29" s="2">
-        <f xml:space="preserve"> LN(B8/4.454)</f>
         <v>-7.8891426865729496E-3</v>
       </c>
       <c r="D29" s="2">
@@ -5663,13 +5662,13 @@
         <v>0.13999999999999968</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
+        <f t="shared" si="3"/>
+        <v>3.915</v>
+      </c>
+      <c r="B30" s="2">
         <f t="shared" si="2"/>
-        <v>3.915</v>
-      </c>
-      <c r="B30" s="2">
-        <f xml:space="preserve"> LN(B9/4.454)</f>
         <v>-1.6069147398503677E-2</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -5687,13 +5686,13 @@
         <v>2.7714285714288116</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
+        <f t="shared" si="3"/>
+        <v>3.92</v>
+      </c>
+      <c r="B31" s="2">
         <f t="shared" si="2"/>
-        <v>3.92</v>
-      </c>
-      <c r="B31" s="2">
-        <f xml:space="preserve"> LN(B10/4.454)</f>
         <v>-8.0136260919434543E-2</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -5704,13 +5703,13 @@
         <v>7.8556510000000062</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
+        <f t="shared" si="3"/>
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="B32" s="2">
         <f t="shared" si="2"/>
-        <v>3.9249999999999998</v>
-      </c>
-      <c r="B32" s="2">
-        <f xml:space="preserve"> LN(B11/4.454)</f>
         <v>-0.15696109143481557</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -5720,13 +5719,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
+        <f t="shared" si="3"/>
+        <v>3.93</v>
+      </c>
+      <c r="B33" s="2">
         <f t="shared" si="2"/>
-        <v>3.93</v>
-      </c>
-      <c r="B33" s="2">
-        <f xml:space="preserve"> LN(B12/4.454)</f>
         <v>-0.22179735411741286</v>
       </c>
       <c r="G33" s="2">
@@ -5738,205 +5737,205 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
+        <f t="shared" si="3"/>
+        <v>3.9350000000000001</v>
+      </c>
+      <c r="B34" s="2">
         <f t="shared" si="2"/>
-        <v>3.9350000000000001</v>
-      </c>
-      <c r="B34" s="2">
-        <f xml:space="preserve"> LN(B13/4.454)</f>
         <v>-0.28543941620794699</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" ref="G34:G55" si="3">G7</f>
+        <f t="shared" ref="G34:G55" si="4">G7</f>
         <v>4.375</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" ref="H34:H55" si="4">LN(H7/3.458)</f>
+        <f t="shared" ref="H34:H55" si="5">LN(H7/3.458)</f>
         <v>-2.6668247082161409E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
+        <f t="shared" si="3"/>
+        <v>3.94</v>
+      </c>
+      <c r="B35" s="2">
         <f t="shared" si="2"/>
-        <v>3.94</v>
-      </c>
-      <c r="B35" s="2">
-        <f xml:space="preserve"> LN(B14/4.454)</f>
         <v>-0.36272309002956454</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="4"/>
+        <v>4.38</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="5"/>
+        <v>-6.0190939120805059E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
         <f t="shared" si="3"/>
-        <v>4.38</v>
-      </c>
-      <c r="H35" s="2">
+        <v>3.9449999999999998</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.43220010580096679</v>
+      </c>
+      <c r="G36" s="2">
         <f t="shared" si="4"/>
-        <v>-6.0190939120805059E-2</v>
+        <v>4.3849999999999998</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.10381938647589882</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <f t="shared" si="3"/>
+        <v>3.95</v>
+      </c>
+      <c r="B37" s="2">
         <f t="shared" si="2"/>
-        <v>3.9449999999999998</v>
-      </c>
-      <c r="B36" s="2">
-        <f xml:space="preserve"> LN(B15/4.454)</f>
-        <v>-0.43220010580096679</v>
-      </c>
-      <c r="G36" s="2">
+        <v>-0.49096723556083499</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="4"/>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.13377929577829403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
         <f t="shared" si="3"/>
-        <v>4.3849999999999998</v>
-      </c>
-      <c r="H36" s="2">
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.56637409255056481</v>
+      </c>
+      <c r="G38" s="2">
         <f t="shared" si="4"/>
-        <v>-0.10381938647589882</v>
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.16126091800976308</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <f t="shared" si="3"/>
+        <v>3.96</v>
+      </c>
+      <c r="B39" s="2">
         <f t="shared" si="2"/>
-        <v>3.95</v>
-      </c>
-      <c r="B37" s="2">
-        <f xml:space="preserve"> LN(B16/4.454)</f>
-        <v>-0.49096723556083499</v>
-      </c>
-      <c r="G37" s="2">
+        <v>-0.64322438032640206</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.20572812566944515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
         <f t="shared" si="3"/>
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="H37" s="2">
+        <v>3.9649999999999999</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.70035766695986656</v>
+      </c>
+      <c r="G40" s="2">
         <f t="shared" si="4"/>
-        <v>-0.13377929577829403</v>
+        <v>4.4050000000000002</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.24189843387520005</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <f t="shared" si="3"/>
+        <v>3.97</v>
+      </c>
+      <c r="B41" s="2">
         <f t="shared" si="2"/>
-        <v>3.9550000000000001</v>
-      </c>
-      <c r="B38" s="2">
-        <f xml:space="preserve"> LN(B17/4.454)</f>
-        <v>-0.56637409255056481</v>
-      </c>
-      <c r="G38" s="2">
+        <v>-0.76818819813772909</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="4"/>
+        <v>4.41</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.26537631493748276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2">
         <f t="shared" si="3"/>
-        <v>4.3949999999999996</v>
-      </c>
-      <c r="H38" s="2">
+        <v>3.9750000000000001</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.85247513700502697</v>
+      </c>
+      <c r="G42" s="2">
         <f t="shared" si="4"/>
-        <v>-0.16126091800976308</v>
+        <v>4.415</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.30577419126377875</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+    <row r="43" spans="1:8">
+      <c r="A43" s="2">
+        <f t="shared" si="3"/>
+        <v>3.98</v>
+      </c>
+      <c r="B43" s="2">
         <f t="shared" si="2"/>
-        <v>3.96</v>
-      </c>
-      <c r="B39" s="2">
-        <f xml:space="preserve"> LN(B18/4.454)</f>
-        <v>-0.64322438032640206</v>
-      </c>
-      <c r="G39" s="2">
+        <v>-0.91270489208385341</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="4"/>
+        <v>4.42</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.34910226802731548</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2">
         <f t="shared" si="3"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H39" s="2">
+        <v>3.9849999999999999</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.97144370925551216</v>
+      </c>
+      <c r="G44" s="2">
         <f t="shared" si="4"/>
-        <v>-0.20572812566944515</v>
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.37233018914449373</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <f t="shared" si="2"/>
-        <v>3.9649999999999999</v>
-      </c>
-      <c r="B40" s="2">
-        <f xml:space="preserve"> LN(B19/4.454)</f>
-        <v>-0.70035766695986656</v>
-      </c>
-      <c r="G40" s="2">
-        <f t="shared" si="3"/>
-        <v>4.4050000000000002</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.24189843387520005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <f t="shared" si="2"/>
-        <v>3.97</v>
-      </c>
-      <c r="B41" s="2">
-        <f xml:space="preserve"> LN(B20/4.454)</f>
-        <v>-0.76818819813772909</v>
-      </c>
-      <c r="G41" s="2">
-        <f t="shared" si="3"/>
-        <v>4.41</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.26537631493748276</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <f t="shared" si="2"/>
-        <v>3.9750000000000001</v>
-      </c>
-      <c r="B42" s="2">
-        <f xml:space="preserve"> LN(B21/4.454)</f>
-        <v>-0.85247513700502697</v>
-      </c>
-      <c r="G42" s="2">
-        <f t="shared" si="3"/>
-        <v>4.415</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.30577419126377875</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <f t="shared" si="2"/>
-        <v>3.98</v>
-      </c>
-      <c r="B43" s="2">
-        <f xml:space="preserve"> LN(B22/4.454)</f>
-        <v>-0.91270489208385341</v>
-      </c>
-      <c r="G43" s="2">
-        <f t="shared" si="3"/>
-        <v>4.42</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.34910226802731548</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <f t="shared" si="2"/>
-        <v>3.9849999999999999</v>
-      </c>
-      <c r="B44" s="2">
-        <f xml:space="preserve"> LN(B23/4.454)</f>
-        <v>-0.97144370925551216</v>
-      </c>
-      <c r="G44" s="2">
-        <f t="shared" si="3"/>
-        <v>4.4249999999999998</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.37233018914449373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -5945,15 +5944,15 @@
         <v>3.6553956198125363E-6</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.43</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.40517596541423156</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -5962,105 +5961,105 @@
         <v>9.7224939999999869</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4349999999999996</v>
       </c>
       <c r="H46" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.45359759385862564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="G47" s="2">
         <f t="shared" si="4"/>
-        <v>-0.45359759385862564</v>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.48128741092408817</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G47" s="2">
-        <f t="shared" si="3"/>
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="H47" s="2">
+    <row r="48" spans="1:8">
+      <c r="G48" s="2">
         <f t="shared" si="4"/>
-        <v>-0.48128741092408817</v>
+        <v>4.4450000000000003</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.50640126336997826</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G48" s="2">
-        <f t="shared" si="3"/>
-        <v>4.4450000000000003</v>
-      </c>
-      <c r="H48" s="2">
+    <row r="49" spans="7:8">
+      <c r="G49" s="2">
         <f t="shared" si="4"/>
-        <v>-0.50640126336997826</v>
+        <v>4.45</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.55456782163811802</v>
       </c>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G49" s="2">
-        <f t="shared" si="3"/>
-        <v>4.45</v>
-      </c>
-      <c r="H49" s="2">
+    <row r="50" spans="7:8">
+      <c r="G50" s="2">
         <f t="shared" si="4"/>
-        <v>-0.55456782163811802</v>
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.5914950942303363</v>
       </c>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G50" s="2">
-        <f t="shared" si="3"/>
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="H50" s="2">
+    <row r="51" spans="7:8">
+      <c r="G51" s="2">
         <f t="shared" si="4"/>
-        <v>-0.5914950942303363</v>
+        <v>4.46</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.61048300647502773</v>
       </c>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G51" s="2">
-        <f t="shared" si="3"/>
-        <v>4.46</v>
-      </c>
-      <c r="H51" s="2">
+    <row r="52" spans="7:8">
+      <c r="G52" s="2">
         <f t="shared" si="4"/>
-        <v>-0.61048300647502773</v>
+        <v>4.4649999999999999</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.65290372235897975</v>
       </c>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G52" s="2">
-        <f t="shared" si="3"/>
-        <v>4.4649999999999999</v>
-      </c>
-      <c r="H52" s="2">
+    <row r="53" spans="7:8">
+      <c r="G53" s="2">
         <f t="shared" si="4"/>
-        <v>-0.65290372235897975</v>
+        <v>4.47</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.69952956369903529</v>
       </c>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G53" s="2">
-        <f t="shared" si="3"/>
-        <v>4.47</v>
-      </c>
-      <c r="H53" s="2">
+    <row r="54" spans="7:8">
+      <c r="G54" s="2">
         <f t="shared" si="4"/>
-        <v>-0.69952956369903529</v>
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.71833152768143516</v>
       </c>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G54" s="2">
-        <f t="shared" si="3"/>
-        <v>4.4749999999999996</v>
-      </c>
-      <c r="H54" s="2">
+    <row r="55" spans="7:8">
+      <c r="G55" s="2">
         <f t="shared" si="4"/>
-        <v>-0.71833152768143516</v>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.75088413071918358</v>
       </c>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G55" s="2">
-        <f t="shared" si="3"/>
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.75088413071918358</v>
-      </c>
-    </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="7:8">
       <c r="G56" s="2" t="s">
         <v>12</v>
       </c>
@@ -6069,7 +6068,7 @@
         <v>6.6235736961991941E-6</v>
       </c>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="7:8">
       <c r="G57" s="2" t="s">
         <v>13</v>
       </c>
